--- a/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll1_l40_HFalse_c0.xlsx
+++ b/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll1_l40_HFalse_c0.xlsx
@@ -995,7 +995,7 @@
         <v>11.2</v>
       </c>
       <c r="E2" t="n">
-        <v>5600</v>
+        <v>3733.333333333333</v>
       </c>
       <c r="F2" t="n">
         <v>44.8</v>
@@ -1027,7 +1027,7 @@
         <v>12.4</v>
       </c>
       <c r="E3" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="F3" t="n">
         <v>49.6</v>
@@ -1059,7 +1059,7 @@
         <v>12.3</v>
       </c>
       <c r="E4" t="n">
-        <v>4000</v>
+        <v>2666.666666666667</v>
       </c>
       <c r="F4" t="n">
         <v>49.2</v>
@@ -1091,7 +1091,7 @@
         <v>11.1</v>
       </c>
       <c r="E5" t="n">
-        <v>8000</v>
+        <v>5333.333333333334</v>
       </c>
       <c r="F5" t="n">
         <v>44.4</v>
@@ -1123,7 +1123,7 @@
         <v>1.2</v>
       </c>
       <c r="E6" t="n">
-        <v>800</v>
+        <v>533.3333333333333</v>
       </c>
       <c r="F6" t="n">
         <v>4.8</v>
@@ -1155,7 +1155,7 @@
         <v>1.2</v>
       </c>
       <c r="E7" t="n">
-        <v>640</v>
+        <v>426.6666666666667</v>
       </c>
       <c r="F7" t="n">
         <v>4.8</v>
@@ -1187,7 +1187,7 @@
         <v>1.1</v>
       </c>
       <c r="E8" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="F8" t="n">
         <v>4.4</v>
@@ -1219,7 +1219,7 @@
         <v>0.1</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>53.33333333333333</v>
       </c>
       <c r="F9" t="n">
         <v>0.4</v>
@@ -1251,7 +1251,7 @@
         <v>0.1</v>
       </c>
       <c r="E10" t="n">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.4</v>
@@ -1283,7 +1283,7 @@
         <v>0.1</v>
       </c>
       <c r="E11" t="n">
-        <v>184</v>
+        <v>122.6666666666667</v>
       </c>
       <c r="F11" t="n">
         <v>0.4</v>

--- a/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll1_l40_HFalse_c0.xlsx
+++ b/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll1_l40_HFalse_c0.xlsx
@@ -995,13 +995,13 @@
         <v>11.2</v>
       </c>
       <c r="E2" t="n">
-        <v>3733.333333333333</v>
+        <v>5600</v>
       </c>
       <c r="F2" t="n">
         <v>44.8</v>
       </c>
       <c r="G2" t="n">
-        <v>46.66666666666666</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
         <v>9.940104166666666</v>
@@ -1027,13 +1027,13 @@
         <v>12.4</v>
       </c>
       <c r="E3" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F3" t="n">
         <v>49.6</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
         <v>4.033854166666667</v>
@@ -1059,13 +1059,13 @@
         <v>12.3</v>
       </c>
       <c r="E4" t="n">
-        <v>2666.666666666667</v>
+        <v>4000</v>
       </c>
       <c r="F4" t="n">
         <v>49.2</v>
       </c>
       <c r="G4" t="n">
-        <v>33.33333333333334</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
         <v>7.096354166666667</v>
@@ -1091,13 +1091,13 @@
         <v>11.1</v>
       </c>
       <c r="E5" t="n">
-        <v>5333.333333333334</v>
+        <v>8000</v>
       </c>
       <c r="F5" t="n">
         <v>44.4</v>
       </c>
       <c r="G5" t="n">
-        <v>66.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
         <v>14.07291666666667</v>
@@ -1123,7 +1123,7 @@
         <v>1.2</v>
       </c>
       <c r="E6" t="n">
-        <v>533.3333333333333</v>
+        <v>800</v>
       </c>
       <c r="F6" t="n">
         <v>4.8</v>
@@ -1155,7 +1155,7 @@
         <v>1.2</v>
       </c>
       <c r="E7" t="n">
-        <v>426.6666666666667</v>
+        <v>640</v>
       </c>
       <c r="F7" t="n">
         <v>4.8</v>
@@ -1187,7 +1187,7 @@
         <v>1.1</v>
       </c>
       <c r="E8" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F8" t="n">
         <v>4.4</v>
@@ -1219,7 +1219,7 @@
         <v>0.1</v>
       </c>
       <c r="E9" t="n">
-        <v>53.33333333333333</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
         <v>0.4</v>
@@ -1251,7 +1251,7 @@
         <v>0.1</v>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="F10" t="n">
         <v>0.4</v>
@@ -1283,7 +1283,7 @@
         <v>0.1</v>
       </c>
       <c r="E11" t="n">
-        <v>122.6666666666667</v>
+        <v>184</v>
       </c>
       <c r="F11" t="n">
         <v>0.4</v>
